--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Hmmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H2">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I2">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J2">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.213102</v>
+        <v>3.9645265</v>
       </c>
       <c r="N2">
-        <v>8.426204</v>
+        <v>7.929053</v>
       </c>
       <c r="O2">
-        <v>0.1051110768030638</v>
+        <v>0.1068120917322893</v>
       </c>
       <c r="P2">
-        <v>0.0787304194707704</v>
+        <v>0.0832154569269431</v>
       </c>
       <c r="Q2">
-        <v>215.751369293648</v>
+        <v>5.787055012788501</v>
       </c>
       <c r="R2">
-        <v>1294.508215761888</v>
+        <v>23.148220051154</v>
       </c>
       <c r="S2">
-        <v>0.09902067743665911</v>
+        <v>0.002735730323441772</v>
       </c>
       <c r="T2">
-        <v>0.07562929861215809</v>
+        <v>0.001470643241419218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H3">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I3">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J3">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>54.532698</v>
       </c>
       <c r="O3">
-        <v>0.4535051693309968</v>
+        <v>0.4897391522195003</v>
       </c>
       <c r="P3">
-        <v>0.5095274441982228</v>
+        <v>0.5723209797600036</v>
       </c>
       <c r="Q3">
-        <v>930.8663200951839</v>
+        <v>26.533956688294</v>
       </c>
       <c r="R3">
-        <v>8377.796880856655</v>
+        <v>159.203740129764</v>
       </c>
       <c r="S3">
-        <v>0.427227942610832</v>
+        <v>0.01254346982232662</v>
       </c>
       <c r="T3">
-        <v>0.4894576135551235</v>
+        <v>0.01011446685374096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H4">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I4">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J4">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.368838</v>
+        <v>0.5323366666666667</v>
       </c>
       <c r="N4">
-        <v>7.106514</v>
+        <v>1.59701</v>
       </c>
       <c r="O4">
-        <v>0.05909923684544454</v>
+        <v>0.01434219013858555</v>
       </c>
       <c r="P4">
-        <v>0.06639986738926597</v>
+        <v>0.01676062915292626</v>
       </c>
       <c r="Q4">
-        <v>121.307303296912</v>
+        <v>0.7770566233633335</v>
       </c>
       <c r="R4">
-        <v>1091.765729672208</v>
+        <v>4.66233974018</v>
       </c>
       <c r="S4">
-        <v>0.05567487886542996</v>
+        <v>0.0003673401000800259</v>
       </c>
       <c r="T4">
-        <v>0.06378443595686527</v>
+        <v>0.0002962058600161843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H5">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I5">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J5">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.008007500000001</v>
+        <v>12.1025545</v>
       </c>
       <c r="N5">
-        <v>18.016015</v>
+        <v>24.205109</v>
       </c>
       <c r="O5">
-        <v>0.2247373474876884</v>
+        <v>0.3260664700939772</v>
       </c>
       <c r="P5">
-        <v>0.1683330261339142</v>
+        <v>0.2540327584393071</v>
       </c>
       <c r="Q5">
-        <v>461.2966770641801</v>
+        <v>17.6662077266405</v>
       </c>
       <c r="R5">
-        <v>2767.78006238508</v>
+        <v>70.664830906562</v>
       </c>
       <c r="S5">
-        <v>0.2117155020230951</v>
+        <v>0.008351394633572679</v>
       </c>
       <c r="T5">
-        <v>0.1617025386800651</v>
+        <v>0.004489449113111679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H6">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I6">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J6">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.505090333333333</v>
+        <v>0.7886313333333334</v>
       </c>
       <c r="N6">
-        <v>7.515271</v>
+        <v>2.365894</v>
       </c>
       <c r="O6">
-        <v>0.06249854440400749</v>
+        <v>0.02124726933190069</v>
       </c>
       <c r="P6">
-        <v>0.07021909726687321</v>
+        <v>0.02483007116369548</v>
       </c>
       <c r="Q6">
-        <v>128.2847340560347</v>
+        <v>1.151172254948667</v>
       </c>
       <c r="R6">
-        <v>1154.562606504312</v>
+        <v>6.907033529692001</v>
       </c>
       <c r="S6">
-        <v>0.0588772220199494</v>
+        <v>0.0005441968044900988</v>
       </c>
       <c r="T6">
-        <v>0.06745322978298317</v>
+        <v>0.0004388148270687912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H7">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I7">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J7">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.809775</v>
+        <v>1.551217333333333</v>
       </c>
       <c r="N7">
-        <v>11.429325</v>
+        <v>4.653652</v>
       </c>
       <c r="O7">
-        <v>0.0950486251287988</v>
+        <v>0.04179282648374708</v>
       </c>
       <c r="P7">
-        <v>0.1067901455409533</v>
+        <v>0.04884010455712462</v>
       </c>
       <c r="Q7">
-        <v>195.0971452746</v>
+        <v>2.264325902422667</v>
       </c>
       <c r="R7">
-        <v>1755.8743074714</v>
+        <v>13.585955414536</v>
       </c>
       <c r="S7">
-        <v>0.08954126944499516</v>
+        <v>0.001070420968821493</v>
       </c>
       <c r="T7">
-        <v>0.1025837771504706</v>
+        <v>0.0008631373584861936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H8">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I8">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J8">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.213102</v>
+        <v>3.9645265</v>
       </c>
       <c r="N8">
-        <v>8.426204</v>
+        <v>7.929053</v>
       </c>
       <c r="O8">
-        <v>0.1051110768030638</v>
+        <v>0.1068120917322893</v>
       </c>
       <c r="P8">
-        <v>0.0787304194707704</v>
+        <v>0.0832154569269431</v>
       </c>
       <c r="Q8">
-        <v>13.270076885583</v>
+        <v>203.021911403036</v>
       </c>
       <c r="R8">
-        <v>53.08030754233201</v>
+        <v>1218.131468418216</v>
       </c>
       <c r="S8">
-        <v>0.006090399366404701</v>
+        <v>0.09597510272859283</v>
       </c>
       <c r="T8">
-        <v>0.003101120858612325</v>
+        <v>0.07738982985432649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H9">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I9">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J9">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>54.532698</v>
       </c>
       <c r="O9">
-        <v>0.4535051693309968</v>
+        <v>0.4897391522195003</v>
       </c>
       <c r="P9">
-        <v>0.5095274441982228</v>
+        <v>0.5723209797600036</v>
       </c>
       <c r="Q9">
-        <v>57.254179560039</v>
+        <v>930.8663200951841</v>
       </c>
       <c r="R9">
-        <v>343.525077360234</v>
+        <v>8377.796880856657</v>
       </c>
       <c r="S9">
-        <v>0.02627722672016477</v>
+        <v>0.4400509781447486</v>
       </c>
       <c r="T9">
-        <v>0.02006983064309938</v>
+        <v>0.5322547622922146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H10">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I10">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J10">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.368838</v>
+        <v>0.5323366666666667</v>
       </c>
       <c r="N10">
-        <v>7.106514</v>
+        <v>1.59701</v>
       </c>
       <c r="O10">
-        <v>0.05909923684544454</v>
+        <v>0.01434219013858555</v>
       </c>
       <c r="P10">
-        <v>0.06639986738926597</v>
+        <v>0.01676062915292626</v>
       </c>
       <c r="Q10">
-        <v>7.461168134427</v>
+        <v>27.26076054141333</v>
       </c>
       <c r="R10">
-        <v>44.767008806562</v>
+        <v>245.34684487272</v>
       </c>
       <c r="S10">
-        <v>0.003424357980014578</v>
+        <v>0.01288705379306457</v>
       </c>
       <c r="T10">
-        <v>0.0026154314324007</v>
+        <v>0.01558727532476551</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H11">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I11">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J11">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.008007500000001</v>
+        <v>12.1025545</v>
       </c>
       <c r="N11">
-        <v>18.016015</v>
+        <v>24.205109</v>
       </c>
       <c r="O11">
-        <v>0.2247373474876884</v>
+        <v>0.3260664700939772</v>
       </c>
       <c r="P11">
-        <v>0.1683330261339142</v>
+        <v>0.2540327584393071</v>
       </c>
       <c r="Q11">
-        <v>28.37266985487376</v>
+        <v>619.7672653845079</v>
       </c>
       <c r="R11">
-        <v>113.490679419495</v>
+        <v>3718.603592307048</v>
       </c>
       <c r="S11">
-        <v>0.01302184546459326</v>
+        <v>0.2929842722493829</v>
       </c>
       <c r="T11">
-        <v>0.006630487453849032</v>
+        <v>0.2362488013531285</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H12">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I12">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J12">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.505090333333333</v>
+        <v>0.7886313333333334</v>
       </c>
       <c r="N12">
-        <v>7.515271</v>
+        <v>2.365894</v>
       </c>
       <c r="O12">
-        <v>0.06249854440400749</v>
+        <v>0.02124726933190069</v>
       </c>
       <c r="P12">
-        <v>0.07021909726687321</v>
+        <v>0.02483007116369548</v>
       </c>
       <c r="Q12">
-        <v>7.890324356890501</v>
+        <v>40.38551405461867</v>
       </c>
       <c r="R12">
-        <v>47.34194614134301</v>
+        <v>363.469626491568</v>
       </c>
       <c r="S12">
-        <v>0.003621322384058082</v>
+        <v>0.01909155437141202</v>
       </c>
       <c r="T12">
-        <v>0.002765867483890053</v>
+        <v>0.02309180353736719</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H13">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I13">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J13">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.809775</v>
+        <v>1.551217333333333</v>
       </c>
       <c r="N13">
-        <v>11.429325</v>
+        <v>4.653652</v>
       </c>
       <c r="O13">
-        <v>0.0950486251287988</v>
+        <v>0.04179282648374708</v>
       </c>
       <c r="P13">
-        <v>0.1067901455409533</v>
+        <v>0.04884010455712462</v>
       </c>
       <c r="Q13">
-        <v>11.9997111787875</v>
+        <v>79.43725638228267</v>
       </c>
       <c r="R13">
-        <v>71.99826707272501</v>
+        <v>714.9353074405441</v>
       </c>
       <c r="S13">
-        <v>0.005507355683803637</v>
+        <v>0.03755259119116507</v>
       </c>
       <c r="T13">
-        <v>0.00420636839048275</v>
+        <v>0.0454209773198951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H14">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J14">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.9645265</v>
+      </c>
+      <c r="N14">
+        <v>7.929053</v>
+      </c>
+      <c r="O14">
+        <v>0.1068120917322893</v>
+      </c>
+      <c r="P14">
+        <v>0.0832154569269431</v>
+      </c>
+      <c r="Q14">
+        <v>17.13708008926925</v>
+      </c>
+      <c r="R14">
+        <v>68.548320357077</v>
+      </c>
+      <c r="S14">
+        <v>0.008101258680254667</v>
+      </c>
+      <c r="T14">
+        <v>0.004354983831197382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H15">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J15">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.177566</v>
+      </c>
+      <c r="N15">
+        <v>54.532698</v>
+      </c>
+      <c r="O15">
+        <v>0.4897391522195003</v>
+      </c>
+      <c r="P15">
+        <v>0.5723209797600036</v>
+      </c>
+      <c r="Q15">
+        <v>78.57442859064702</v>
+      </c>
+      <c r="R15">
+        <v>471.4465715438821</v>
+      </c>
+      <c r="S15">
+        <v>0.03714470425242513</v>
+      </c>
+      <c r="T15">
+        <v>0.02995175061404809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H16">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J16">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5323366666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.59701</v>
+      </c>
+      <c r="O16">
+        <v>0.01434219013858555</v>
+      </c>
+      <c r="P16">
+        <v>0.01676062915292626</v>
+      </c>
+      <c r="Q16">
+        <v>2.301080870848334</v>
+      </c>
+      <c r="R16">
+        <v>13.80648522509</v>
+      </c>
+      <c r="S16">
+        <v>0.001087796245440954</v>
+      </c>
+      <c r="T16">
+        <v>0.0008771479681445605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H17">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J17">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.1025545</v>
+      </c>
+      <c r="N17">
+        <v>24.205109</v>
+      </c>
+      <c r="O17">
+        <v>0.3260664700939772</v>
+      </c>
+      <c r="P17">
+        <v>0.2540327584393071</v>
+      </c>
+      <c r="Q17">
+        <v>52.31455654319526</v>
+      </c>
+      <c r="R17">
+        <v>209.258226172781</v>
+      </c>
+      <c r="S17">
+        <v>0.02473080321102159</v>
+      </c>
+      <c r="T17">
+        <v>0.01329450797306693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H18">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J18">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7886313333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.365894</v>
+      </c>
+      <c r="O18">
+        <v>0.02124726933190069</v>
+      </c>
+      <c r="P18">
+        <v>0.02483007116369548</v>
+      </c>
+      <c r="Q18">
+        <v>3.408941350307667</v>
+      </c>
+      <c r="R18">
+        <v>20.453648101846</v>
+      </c>
+      <c r="S18">
+        <v>0.001611518155998573</v>
+      </c>
+      <c r="T18">
+        <v>0.001299452799259495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H19">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J19">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.551217333333333</v>
+      </c>
+      <c r="N19">
+        <v>4.653652</v>
+      </c>
+      <c r="O19">
+        <v>0.04179282648374708</v>
+      </c>
+      <c r="P19">
+        <v>0.04884010455712462</v>
+      </c>
+      <c r="Q19">
+        <v>6.705299025544668</v>
+      </c>
+      <c r="R19">
+        <v>40.23179415326801</v>
+      </c>
+      <c r="S19">
+        <v>0.003169814323760521</v>
+      </c>
+      <c r="T19">
+        <v>0.002555989878743321</v>
       </c>
     </row>
   </sheetData>
